--- a/oulad_reject_rules.xlsx
+++ b/oulad_reject_rules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,16 +497,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.8338648883734415</v>
+        <v>0.8190779936213395</v>
       </c>
       <c r="F2" t="n">
-        <v>0.91973137192197</v>
+        <v>0.9034218100415734</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1091723657107898</v>
+        <v>0.1177075243272877</v>
       </c>
       <c r="H2" t="n">
-        <v>3.921495158025292e-09</v>
+        <v>7.076296227513215e-09</v>
       </c>
     </row>
     <row r="3">
@@ -531,16 +531,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.4262104957958829</v>
+        <v>0.4180922006378661</v>
       </c>
       <c r="F3" t="n">
-        <v>0.98</v>
+        <v>0.9613333333333334</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07756097560975606</v>
+        <v>0.08328455284552849</v>
       </c>
       <c r="H3" t="n">
-        <v>6.948963896122892e-07</v>
+        <v>5.62646683961731e-05</v>
       </c>
     </row>
     <row r="4">
@@ -565,22 +565,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2539866628008118</v>
+        <v>0.2464482458683676</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9449838187702265</v>
+        <v>0.9169363538295577</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1016103247943229</v>
+        <v>0.2542857514199192</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007851197045726136</v>
+        <v>2.122717252997952e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RULE8</t>
+          <t>RULE6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'code_module': 'FFF'}</t>
+          <t>{'code_module': 'BBB'}</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -599,22 +599,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.2273122644244709</v>
+        <v>0.1890403015366773</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9949238578680203</v>
+        <v>0.919605077574048</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2687333816775441</v>
+        <v>0.1503743083432787</v>
       </c>
       <c r="H5" t="n">
-        <v>1.784897748455576e-31</v>
+        <v>0.0001469926683963575</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RULE10</t>
+          <t>RULE7</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'code_module': 'EEE'}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.3954769498405335</v>
+        <v>0.07741374311394607</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9770773638968482</v>
+        <v>0.9434628975265018</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04992504601605352</v>
+        <v>0.1934628975265018</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0006213003636345409</v>
+        <v>0.004096067354740271</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RULE12</t>
+          <t>RULE8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'studied_credits': '60-65'}</t>
+          <t>{'code_module': 'FFF'}</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.4665120324731806</v>
+        <v>0.2273122644244709</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9515079834417505</v>
+        <v>0.9949238578680203</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09058083112386972</v>
+        <v>0.1854000483442108</v>
       </c>
       <c r="H7" t="n">
-        <v>1.534209005136948e-05</v>
+        <v>1.162093685759588e-22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RULE13</t>
+          <t>RULE11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'age_band': '0-35', 'SES': 'high'}</t>
+          <t>{'highest_education': 'A Level or Equivalent'}</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -701,22 +701,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2876195998840244</v>
+        <v>0.3902580458103798</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9860834990059643</v>
+        <v>0.9641833810888252</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05130089031031204</v>
+        <v>0.07014364598948741</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0006432190606468544</v>
+        <v>0.0001207933720927546</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RULE14</t>
+          <t>RULE15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1316323572049869</v>
+        <v>0.1293128443026964</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9680170575692963</v>
+        <v>0.9509594882729211</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1615654446660706</v>
+        <v>0.2090240044019533</v>
       </c>
       <c r="H9" t="n">
-        <v>8.826684815129255e-05</v>
+        <v>5.042951838530815e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RULE16</t>
+          <t>RULE17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -775,16 +775,16 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06666666666666665</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H10" t="n">
-        <v>1.173179514064769e-05</v>
+        <v>1.2459872371212e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RULE17</t>
+          <t>RULE18</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -803,22 +803,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.07915337779066396</v>
+        <v>0.07857349956509133</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9646643109540636</v>
+        <v>0.9575971731448764</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2046643109540636</v>
+        <v>0.2375971731448764</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0001015147909704282</v>
+        <v>4.964107495413399e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RULE20</t>
+          <t>RULE22</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{'code_module': 'GGG', 'SES': 'high'}</t>
+          <t>{'gender': 'F', 'SES': 'high'}</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -837,22 +837,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.04233111046680197</v>
+        <v>0.177732676138011</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9864864864864865</v>
+        <v>0.9776714513556619</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1198198198198198</v>
+        <v>0.09057467716211354</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00745735944040994</v>
+        <v>0.0001816387774871409</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RULE21</t>
+          <t>RULE26</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{'gender': 'F', 'SES': 'high'}</t>
+          <t>{'SES': 'high', 'highest_education': 'Lower Than A Level'}</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -871,22 +871,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.1791823717019426</v>
+        <v>0.1397506523630038</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9856459330143541</v>
+        <v>0.9359223300970874</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08242012656274122</v>
+        <v>0.1581445523193096</v>
       </c>
       <c r="H13" t="n">
-        <v>5.187407209321733e-05</v>
+        <v>0.0002702004923248475</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RULE22</t>
+          <t>RULE27</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{'SES': 'high', 'gender': 'M'}</t>
+          <t>{'studied_credits': '60-65', 'SES': 'high'}</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2470281240939403</v>
+        <v>0.2400695853870687</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9759450171821306</v>
+        <v>0.9904306220095693</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07430567291983547</v>
+        <v>0.05600439250137257</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001433969451254661</v>
+        <v>0.0003710488762516039</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RULE23</t>
+          <t>RULE28</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>{'SES': 'high', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'SES': 'high', 'studied_credits': 'More than 65'}</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.2041171354015657</v>
+        <v>0.120614670919107</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0.9476082004555809</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0625</v>
+        <v>0.122608200455581</v>
       </c>
       <c r="H15" t="n">
-        <v>1.073345312982509e-10</v>
+        <v>0.005141602206187844</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RULE25</t>
+          <t>RULE30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{'highest_education': 'Lower Than A Level', 'SES': 'high'}</t>
+          <t>{'code_module': 'FFF', 'SES': 'low'}</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -973,22 +973,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.1423601043780806</v>
+        <v>0.1200347926935344</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9533980582524272</v>
+        <v>0.9928057553956835</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1015462064005753</v>
+        <v>0.2946925478485137</v>
       </c>
       <c r="H16" t="n">
-        <v>0.004255770542041394</v>
+        <v>2.782897734057709e-18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RULE28</t>
+          <t>RULE31</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{'studied_credits': 'More than 65', 'SES': 'high'}</t>
+          <t>{'highest_education': 'A Level or Equivalent', 'SES': 'low'}</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.1217744273702523</v>
+        <v>0.1902000579878226</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9567198177676538</v>
+        <v>0.9479768786127167</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1567198177676538</v>
+        <v>0.09740216596903861</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0002110314449015864</v>
+        <v>0.00106961412959193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RULE30</t>
+          <t>RULE35</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{'SES': 'low', 'code_module': 'FFF'}</t>
+          <t>{'code_module': 'EEE', 'age_band': '0-35'}</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1041,22 +1041,22 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1200347926935344</v>
+        <v>0.05769788344447666</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9928057553956835</v>
+        <v>0.9299065420560748</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4267680195466269</v>
+        <v>0.3465732087227414</v>
       </c>
       <c r="H18" t="n">
-        <v>5.411859010943007e-23</v>
+        <v>0.001507712032316052</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RULE34</t>
+          <t>RULE36</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>{'age_band': '0-35', 'code_module': 'EEE'}</t>
+          <t>{'code_module': 'FFF', 'age_band': '0-35'}</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1075,22 +1075,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.05769788344447666</v>
+        <v>0.1641055378370542</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9299065420560748</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2632398753894082</v>
+        <v>0.1506849315068494</v>
       </c>
       <c r="H19" t="n">
-        <v>0.008518920817603845</v>
+        <v>4.716928660134269e-18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RULE35</t>
+          <t>RULE41</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{'age_band': '0-35', 'code_module': 'FFF'}</t>
+          <t>{'code_module': 'BBB', 'age_band': '35-55'}</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1109,22 +1109,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1641055378370542</v>
+        <v>0.06494636126413453</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0.9451476793248945</v>
       </c>
       <c r="G20" t="n">
-        <v>0.273972602739726</v>
+        <v>0.4451476793248945</v>
       </c>
       <c r="H20" t="n">
-        <v>6.400736198514011e-28</v>
+        <v>3.311751329136428e-07</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RULE39</t>
+          <t>RULE43</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>{'age_band': '0-35', 'studied_credits': '60-65'}</t>
+          <t>{'code_module': 'FFF', 'age_band': '35-55'}</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1143,22 +1143,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3137141200347927</v>
+        <v>0.06262684836184401</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9533039647577093</v>
+        <v>0.9863013698630136</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1199706314243759</v>
+        <v>0.4408468244084682</v>
       </c>
       <c r="H21" t="n">
-        <v>9.388865026449659e-07</v>
+        <v>6.1266130771396e-09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RULE43</t>
+          <t>RULE45</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>{'age_band': '35-55', 'code_module': 'FFF'}</t>
+          <t>{'age_band': '35-55', 'gender': 'F'}</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1177,22 +1177,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.06291678747463032</v>
+        <v>0.1194549144679617</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9908675799086758</v>
+        <v>0.9175946547884187</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2635948526359485</v>
+        <v>0.2006135227129471</v>
       </c>
       <c r="H22" t="n">
-        <v>5.145925709180232e-07</v>
+        <v>0.000103089251881508</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RULE44</t>
+          <t>RULE46</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>{'age_band': '35-55', 'code_module': 'GGG'}</t>
+          <t>{'gender': 'M', 'age_band': '35-55'}</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.03450275442157147</v>
+        <v>0.1269933314004059</v>
       </c>
       <c r="F23" t="n">
-        <v>0.967479674796748</v>
+        <v>0.9163179916317992</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1758130081300814</v>
+        <v>0.3496513249651325</v>
       </c>
       <c r="H23" t="n">
-        <v>0.002993820756498261</v>
+        <v>3.707797413335879e-06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RULE46</t>
+          <t>RULE47</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>{'age_band': '35-55', 'gender': 'M'}</t>
+          <t>{'age_band': '35-55', 'highest_education': 'A Level or Equivalent'}</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1245,22 +1245,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1310524789794143</v>
+        <v>0.09133082052768919</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9456066945606695</v>
+        <v>0.9402985074626866</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1456066945606694</v>
+        <v>0.3249138920780712</v>
       </c>
       <c r="H24" t="n">
-        <v>0.004221307550400484</v>
+        <v>4.36793171813458e-06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RULE47</t>
+          <t>RULE49</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>{'age_band': '35-55', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'age_band': '35-55', 'highest_education': 'Lower Than A Level'}</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1279,22 +1279,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.09423021165555233</v>
+        <v>0.09278051609162076</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9701492537313433</v>
+        <v>0.9116809116809117</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2393800229621126</v>
+        <v>0.2450142450142451</v>
       </c>
       <c r="H25" t="n">
-        <v>1.686688018747922e-06</v>
+        <v>2.802150455805224e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RULE52</t>
+          <t>RULE51</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>{'studied_credits': 'More than 65', 'age_band': '35-55'}</t>
+          <t>{'age_band': '35-55', 'studied_credits': '60-65'}</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1313,22 +1313,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.0623369092490577</v>
+        <v>0.1449695563931575</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9429824561403509</v>
+        <v>0.9293680297397769</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2763157894736843</v>
+        <v>0.1874325458688092</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0002279393669970595</v>
+        <v>0.001263133090600488</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RULE58</t>
+          <t>RULE55</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>{'code_module': 'BBB', 'highest_education': 'HE Qualification'}</t>
+          <t>{'code_module': 'BBB', 'gender': 'F'}</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.03073354595534938</v>
+        <v>0.1716439547694984</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.1840336134453782</v>
       </c>
       <c r="H27" t="n">
-        <v>9.664696628149093e-07</v>
+        <v>1.528528549950452e-06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RULE67</t>
+          <t>RULE63</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>{'code_module': 'EEE', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'gender': 'M', 'code_module': 'EEE'}</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1381,22 +1381,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.04030153667729777</v>
+        <v>0.06668599594085242</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0.9465020576131687</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4</v>
+        <v>0.2242798353909465</v>
       </c>
       <c r="H28" t="n">
-        <v>2.935870500867977e-09</v>
+        <v>0.001904529471986812</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RULE69</t>
+          <t>RULE64</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>{'code_module': 'EEE', 'studied_credits': '60-65'}</t>
+          <t>{'code_module': 'EEE', 'highest_education': 'A Level or Equivalent'}</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1415,22 +1415,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.04755001449695564</v>
+        <v>0.04001159756451145</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0.9928057553956835</v>
       </c>
       <c r="G29" t="n">
-        <v>0.125</v>
+        <v>0.4928057553956835</v>
       </c>
       <c r="H29" t="n">
-        <v>2.043937613984416e-05</v>
+        <v>3.660569682321558e-08</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RULE71</t>
+          <t>RULE66</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>{'code_module': 'FFF', 'gender': 'M'}</t>
+          <t>{'code_module': 'EEE', 'studied_credits': '60-65'}</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1449,22 +1449,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1849811539576689</v>
+        <v>0.04726007538416933</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9937694704049844</v>
+        <v>0.9939024390243902</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3271028037383178</v>
+        <v>0.1189024390243902</v>
       </c>
       <c r="H30" t="n">
-        <v>3.642437068272018e-29</v>
+        <v>0.004060623820862547</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RULE73</t>
+          <t>RULE68</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>{'highest_education': 'HE Qualification', 'code_module': 'FFF'}</t>
+          <t>{'gender': 'M', 'code_module': 'FFF'}</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1483,22 +1483,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.0350826326471441</v>
+        <v>0.1858509712960278</v>
       </c>
       <c r="F31" t="n">
-        <v>0.983739837398374</v>
+        <v>0.9984423676012462</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3170731707317074</v>
+        <v>0.2013409183258839</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00353145260478512</v>
+        <v>2.032951715661819e-23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RULE74</t>
+          <t>RULE69</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>{'highest_education': 'Lower Than A Level', 'code_module': 'FFF'}</t>
+          <t>{'code_module': 'FFF', 'highest_education': 'A Level or Equivalent'}</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1517,22 +1517,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.08495216004639025</v>
+        <v>0.104088141490287</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.05128205128205132</v>
       </c>
       <c r="H32" t="n">
-        <v>5.704209379428779e-20</v>
+        <v>2.664926273129151e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RULE75</t>
+          <t>RULE71</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>{'studied_credits': '60-65', 'code_module': 'FFF'}</t>
+          <t>{'code_module': 'FFF', 'highest_education': 'Lower Than A Level'}</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1551,22 +1551,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.1223543055958249</v>
+        <v>0.08466222093360394</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9952830188679245</v>
+        <v>0.9965870307167235</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2619496855345912</v>
+        <v>0.306110840240533</v>
       </c>
       <c r="H33" t="n">
-        <v>1.653587292320697e-17</v>
+        <v>3.941172383140875e-15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RULE76</t>
+          <t>RULE73</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>{'studied_credits': 'More than 65', 'code_module': 'FFF'}</t>
+          <t>{'code_module': 'FFF', 'studied_credits': 'More than 65'}</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1591,16 +1591,16 @@
         <v>0.9945054945054945</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2765567765567766</v>
+        <v>0.3791208791208791</v>
       </c>
       <c r="H34" t="n">
-        <v>1.466936524841675e-15</v>
+        <v>3.616492419270849e-19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RULE78</t>
+          <t>RULE75</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>{'code_module': 'GGG', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'highest_education': 'A Level or Equivalent', 'code_module': 'GGG'}</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1625,16 +1625,16 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3125</v>
+        <v>0.1875</v>
       </c>
       <c r="H35" t="n">
-        <v>7.754512616050041e-08</v>
+        <v>8.246178365196252e-06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RULE84</t>
+          <t>RULE81</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1653,22 +1653,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.2206436648303856</v>
+        <v>0.2165845172513772</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9870298313878081</v>
+        <v>0.9688715953307393</v>
       </c>
       <c r="G36" t="n">
-        <v>0.05845840281637948</v>
+        <v>0.1403001667593107</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0006309366432578562</v>
+        <v>3.678440117904913e-07</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RULE86</t>
+          <t>RULE85</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>{'studied_credits': '60-65', 'gender': 'M'}</t>
+          <t>{'studied_credits': '60-65', 'highest_education': 'A Level or Equivalent'}</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.2592055668309655</v>
+        <v>0.2162945781385909</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9273858921161826</v>
+        <v>0.9907038512616202</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2037016815898668</v>
+        <v>0.04784670840447736</v>
       </c>
       <c r="H37" t="n">
-        <v>2.113249817233483e-07</v>
+        <v>0.001176782145942535</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RULE87</t>
+          <t>RULE90</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>{'studied_credits': '0-59', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'code_module': 'DDD', 'age_band': '0-35', 'SES': 'high'}</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1721,22 +1721,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.04986952739924616</v>
+        <v>0.0585677007828356</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9772727272727273</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3106060606060607</v>
+        <v>0.2</v>
       </c>
       <c r="H38" t="n">
-        <v>5.615825549400914e-07</v>
+        <v>7.064614420605898e-09</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RULE90</t>
+          <t>RULE91</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>{'highest_education': 'HE Qualification', 'studied_credits': '60-65'}</t>
+          <t>{'code_module': 'EEE', 'age_band': '0-35', 'SES': 'high'}</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1755,22 +1755,22 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.08756161206146709</v>
+        <v>0.03334299797042621</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0.9913793103448276</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="H39" t="n">
-        <v>8.163909895596767e-11</v>
+        <v>0.001264173406010288</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RULE93</t>
+          <t>RULE101</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>{'age_band': '0-35', 'code_module': 'DDD', 'SES': 'high'}</t>
+          <t>{'code_module': 'BBB', 'age_band': '35-55', 'SES': 'high'}</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.0585677007828356</v>
+        <v>0.03131342418092201</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2</v>
+        <v>0.375</v>
       </c>
       <c r="H40" t="n">
-        <v>7.064614420605898e-09</v>
+        <v>2.407947552411401e-07</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RULE97</t>
+          <t>RULE104</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>{'age_band': '0-35', 'gender': 'F', 'SES': 'high'}</t>
+          <t>{'age_band': '35-55', 'code_module': 'GGG', 'SES': 'high'}</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1823,22 +1823,22 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.1168454624528849</v>
+        <v>0.01797622499275152</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02325581395348841</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H41" t="n">
-        <v>0.002426339019705276</v>
+        <v>0.0002489898636939419</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RULE98</t>
+          <t>RULE105</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>{'age_band': '0-35', 'SES': 'high', 'gender': 'M'}</t>
+          <t>{'gender': 'F', 'age_band': '35-55', 'SES': 'high'}</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1857,22 +1857,22 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.1707741374311394</v>
+        <v>0.06117715279791244</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9767827529021559</v>
+        <v>0.9547511312217195</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0788235692286865</v>
+        <v>0.27054060490593</v>
       </c>
       <c r="H42" t="n">
-        <v>0.002712930136044916</v>
+        <v>0.0001474521388085607</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RULE101</t>
+          <t>RULE107</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>{'age_band': '0-35', 'highest_education': 'Lower Than A Level', 'SES': 'high'}</t>
+          <t>{'age_band': '35-55', 'highest_education': 'A Level or Equivalent', 'SES': 'high'}</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1891,22 +1891,22 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.09191069875326181</v>
+        <v>0.04783995360974196</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9577039274924471</v>
+        <v>0.9939759036144579</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1198660896546093</v>
+        <v>0.1757940854326396</v>
       </c>
       <c r="H43" t="n">
-        <v>0.00495872587632525</v>
+        <v>6.932065586259708e-05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RULE103</t>
+          <t>RULE109</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>{'age_band': '0-35', 'studied_credits': '60-65', 'SES': 'high'}</t>
+          <t>{'age_band': '35-55', 'SES': 'high', 'highest_education': 'Lower Than A Level'}</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1925,22 +1925,22 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1585966946941142</v>
+        <v>0.04755001449695564</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0.9060773480662984</v>
       </c>
       <c r="G44" t="n">
-        <v>0.04255319148936165</v>
+        <v>0.2590185245368866</v>
       </c>
       <c r="H44" t="n">
-        <v>2.171572056710927e-06</v>
+        <v>0.0094467724003877</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RULE105</t>
+          <t>RULE110</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>{'age_band': '35-55', 'SES': 'high', 'code_module': 'BBB'}</t>
+          <t>{'age_band': '35-55', 'SES': 'high', 'studied_credits': '60-65'}</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1959,22 +1959,22 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.03131342418092201</v>
+        <v>0.07654392577558712</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="G45" t="n">
-        <v>0.25</v>
+        <v>0.2563025210084033</v>
       </c>
       <c r="H45" t="n">
-        <v>4.673217586561876e-06</v>
+        <v>7.245604265679093e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RULE109</t>
+          <t>RULE113</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>{'age_band': '35-55', 'SES': 'high', 'code_module': 'GGG'}</t>
+          <t>{'gender': 'F', 'code_module': 'BBB', 'SES': 'high'}</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1993,22 +1993,22 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.01768628587996521</v>
+        <v>0.07857349956509133</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9838709677419355</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2695852534562212</v>
+        <v>0.12</v>
       </c>
       <c r="H46" t="n">
-        <v>0.004486232154101632</v>
+        <v>6.505634594479236e-08</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RULE110</t>
+          <t>RULE117</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>{'gender': 'F', 'age_band': '35-55', 'SES': 'high'}</t>
+          <t>{'code_module': 'BBB', 'SES': 'high', 'highest_education': 'Lower Than A Level'}</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2027,22 +2027,22 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.06146709191069875</v>
+        <v>0.03595244998550304</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9592760180995475</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2224339128363897</v>
+        <v>0.2</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0005831919646626443</v>
+        <v>5.302069253000019e-06</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RULE112</t>
+          <t>RULE118</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>{'age_band': '35-55', 'SES': 'high', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'code_module': 'BBB', 'SES': 'high', 'studied_credits': '60-65'}</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2061,22 +2061,22 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.04812989272252827</v>
+        <v>0.0603073354595535</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="H48" t="n">
-        <v>2.280669259129137e-10</v>
+        <v>5.310531604602824e-07</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RULE117</t>
+          <t>RULE124</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>{'studied_credits': 'More than 65', 'age_band': '35-55', 'SES': 'high'}</t>
+          <t>{'gender': 'M', 'code_module': 'DDD', 'SES': 'high'}</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2095,22 +2095,22 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.03247318063206726</v>
+        <v>0.05247897941432299</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9655172413793104</v>
+        <v>0.9836956521739131</v>
       </c>
       <c r="G49" t="n">
-        <v>0.632183908045977</v>
+        <v>0.3683110367892977</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0003436548542102397</v>
+        <v>2.406206547653971e-07</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RULE119</t>
+          <t>RULE128</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>{'gender': 'F', 'code_module': 'BBB', 'SES': 'high'}</t>
+          <t>{'code_module': 'DDD', 'SES': 'high', 'studied_credits': 'More than 65'}</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2129,22 +2129,22 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.07857349956509133</v>
+        <v>0.02261525079733256</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0.9397590361445783</v>
       </c>
       <c r="G50" t="n">
-        <v>0.07999999999999996</v>
+        <v>0.4397590361445783</v>
       </c>
       <c r="H50" t="n">
-        <v>6.910359086689819e-06</v>
+        <v>0.001178488190164557</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RULE121</t>
+          <t>RULE130</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>{'code_module': 'BBB', 'SES': 'high', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'code_module': 'EEE', 'highest_education': 'A Level or Equivalent', 'SES': 'high'}</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2163,22 +2163,22 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.03769208466222093</v>
+        <v>0.02406494636126413</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="H51" t="n">
-        <v>3.017811954425002e-05</v>
+        <v>0.006559073133698876</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RULE125</t>
+          <t>RULE142</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>{'studied_credits': 'More than 65', 'code_module': 'BBB', 'SES': 'high'}</t>
+          <t>{'highest_education': 'A Level or Equivalent', 'code_module': 'GGG', 'SES': 'high'}</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.02812409394027254</v>
+        <v>0.01594665120324732</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H52" t="n">
-        <v>1.377044362157426e-05</v>
+        <v>0.000536229877337924</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RULE129</t>
+          <t>RULE144</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>{'studied_credits': '60-65', 'SES': 'high', 'code_module': 'CCC'}</t>
+          <t>{'studied_credits': '0-59', 'code_module': 'GGG', 'SES': 'high'}</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2231,22 +2231,22 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.02580458103798202</v>
+        <v>0.03943171933893883</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="H53" t="n">
-        <v>2.33353580358003e-06</v>
+        <v>0.004451820149377063</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RULE130</t>
+          <t>RULE145</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>{'code_module': 'DDD', 'SES': 'high', 'gender': 'M'}</t>
+          <t>{'gender': 'F', 'highest_education': 'A Level or Equivalent', 'SES': 'high'}</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2265,22 +2265,22 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.05305885763989562</v>
+        <v>0.08408234270803132</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9945652173913043</v>
+        <v>0.9965635738831615</v>
       </c>
       <c r="G54" t="n">
-        <v>0.302257525083612</v>
+        <v>0.04919515283053</v>
       </c>
       <c r="H54" t="n">
-        <v>1.816299831493206e-08</v>
+        <v>0.003402694657640639</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RULE134</t>
+          <t>RULE147</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>{'studied_credits': 'More than 65', 'code_module': 'DDD', 'SES': 'high'}</t>
+          <t>{'gender': 'F', 'SES': 'high', 'highest_education': 'Lower Than A Level'}</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.02319512902290519</v>
+        <v>0.06407654392577558</v>
       </c>
       <c r="F55" t="n">
-        <v>0.963855421686747</v>
+        <v>0.9608695652173913</v>
       </c>
       <c r="G55" t="n">
-        <v>0.463855421686747</v>
+        <v>0.1881422924901186</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0001825404045513622</v>
+        <v>0.001100948688431203</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>RULE147</t>
+          <t>RULE150</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>{'gender': 'F', 'code_module': 'GGG', 'SES': 'high'}</t>
+          <t>{'gender': 'F', 'SES': 'high', 'studied_credits': 'More than 65'}</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2333,22 +2333,22 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.03450275442157147</v>
+        <v>0.04812989272252827</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.0992063492063493</v>
       </c>
       <c r="H56" t="n">
-        <v>6.430529120502746e-05</v>
+        <v>0.008986882925168461</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>RULE148</t>
+          <t>RULE154</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>{'code_module': 'GGG', 'SES': 'high', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'gender': 'M', 'studied_credits': '60-65', 'SES': 'high'}</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2367,22 +2367,22 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.01594665120324732</v>
+        <v>0.1461293128443027</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.032258064516129</v>
       </c>
       <c r="H57" t="n">
-        <v>0.000536229877337924</v>
+        <v>7.06786490844312e-05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RULE150</t>
+          <t>RULE157</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>{'studied_credits': '0-59', 'code_module': 'GGG', 'SES': 'high'}</t>
+          <t>{'highest_education': 'A Level or Equivalent', 'SES': 'high', 'studied_credits': 'More than 65'}</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2401,22 +2401,22 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.04059147579008408</v>
+        <v>0.06436648303856191</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.03846153846153844</v>
       </c>
       <c r="H58" t="n">
-        <v>2.730254636952698e-05</v>
+        <v>0.004015766669469581</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>RULE151</t>
+          <t>RULE161</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>{'gender': 'F', 'SES': 'high', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'studied_credits': '60-65', 'SES': 'high', 'highest_education': 'Lower Than A Level'}</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2435,22 +2435,22 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.08437228182081763</v>
+        <v>0.07886343867787765</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0.974910394265233</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.1082437275985663</v>
       </c>
       <c r="H59" t="n">
-        <v>1.160427158603267e-07</v>
+        <v>0.004428600619696823</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>RULE154</t>
+          <t>RULE162</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>{'studied_credits': '0-59', 'gender': 'F', 'SES': 'high'}</t>
+          <t>{'code_module': 'FFF', 'age_band': '0-35', 'SES': 'low'}</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2469,22 +2469,22 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.03682226732386199</v>
+        <v>0.09191069875326181</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.2444444444444445</v>
       </c>
       <c r="H60" t="n">
-        <v>6.328391692594091e-05</v>
+        <v>2.988015105842783e-15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RULE156</t>
+          <t>RULE166</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>{'studied_credits': 'More than 65', 'gender': 'F', 'SES': 'high'}</t>
+          <t>{'code_module': 'FFF', 'age_band': '35-55', 'SES': 'low'}</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2503,22 +2503,22 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.04812989272252827</v>
+        <v>0.02783415482748623</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2103174603174603</v>
+        <v>0.5946969696969697</v>
       </c>
       <c r="H61" t="n">
-        <v>1.892700855007785e-05</v>
+        <v>0.0001150128128577349</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>RULE159</t>
+          <t>RULE168</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>{'highest_education': 'Lower Than A Level', 'SES': 'high', 'gender': 'M'}</t>
+          <t>{'age_band': '35-55', 'SES': 'low', 'highest_education': 'Lower Than A Level'}</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2537,22 +2537,22 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.07828356045230501</v>
+        <v>0.04523050159466512</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9176470588235294</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1348684210526315</v>
+        <v>0.2411764705882352</v>
       </c>
       <c r="H62" t="n">
-        <v>0.008270871597006806</v>
+        <v>0.000991871679116895</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>RULE161</t>
+          <t>RULE171</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>{'studied_credits': '60-65', 'SES': 'high', 'gender': 'M'}</t>
+          <t>{'code_module': 'BBB', 'SES': 'low', 'highest_education': 'HE Qualification'}</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2571,22 +2571,22 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.1461293128443027</v>
+        <v>0.01478689475210206</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0.9272727272727272</v>
       </c>
       <c r="G63" t="n">
-        <v>0.06451612903225812</v>
+        <v>0.9272727272727272</v>
       </c>
       <c r="H63" t="n">
-        <v>3.095011761332287e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>RULE163</t>
+          <t>RULE174</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>{'studied_credits': '0-59', 'SES': 'high', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'code_module': 'EEE', 'highest_education': 'A Level or Equivalent', 'SES': 'low'}</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2605,22 +2605,22 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.02638445926355465</v>
+        <v>0.01594665120324732</v>
       </c>
       <c r="F64" t="n">
         <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>5.191350365099665e-05</v>
+        <v>0.0001830235581816765</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>RULE165</t>
+          <t>RULE175</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>{'studied_credits': 'More than 65', 'SES': 'high', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'code_module': 'EEE', 'studied_credits': '60-65', 'SES': 'low'}</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2639,22 +2639,22 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.06436648303856191</v>
+        <v>0.02203537257175993</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>0.07692307692307687</v>
+        <v>0.2</v>
       </c>
       <c r="H65" t="n">
-        <v>6.265471298495333e-05</v>
+        <v>0.0004144487821880614</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>RULE170</t>
+          <t>RULE177</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>{'SES': 'low', 'age_band': '0-35', 'code_module': 'FFF'}</t>
+          <t>{'gender': 'M', 'code_module': 'FFF', 'SES': 'low'}</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2673,22 +2673,22 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.09191069875326181</v>
+        <v>0.09510002899391128</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="H66" t="n">
-        <v>7.641137047734587e-21</v>
+        <v>1.151135648389105e-18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>RULE176</t>
+          <t>RULE178</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>{'SES': 'low', 'age_band': '35-55', 'code_module': 'FFF'}</t>
+          <t>{'code_module': 'FFF', 'highest_education': 'A Level or Equivalent', 'SES': 'low'}</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2707,22 +2707,22 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.02812409394027254</v>
+        <v>0.0507393447376051</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9797979797979798</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>0.3547979797979798</v>
+        <v>0.09090909090909094</v>
       </c>
       <c r="H67" t="n">
-        <v>0.000246714280302653</v>
+        <v>0.0001220332253634582</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RULE184</t>
+          <t>RULE180</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>{'SES': 'low', 'code_module': 'BBB', 'highest_education': 'HE Qualification'}</t>
+          <t>{'code_module': 'FFF', 'SES': 'low', 'highest_education': 'Lower Than A Level'}</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2741,22 +2741,22 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.01594665120324732</v>
+        <v>0.05044940562481879</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0.9942857142857143</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0.4425615763546799</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2.074082681963435e-11</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>RULE190</t>
+          <t>RULE182</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>{'SES': 'low', 'code_module': 'EEE', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'code_module': 'FFF', 'SES': 'low', 'studied_credits': 'More than 65'}</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.01594665120324732</v>
+        <v>0.0585677007828356</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0.9950738916256158</v>
       </c>
       <c r="G69" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.6200738916256158</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0001830235581816765</v>
+        <v>1.152992631674545e-12</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RULE191</t>
+          <t>RULE184</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>{'SES': 'low', 'code_module': 'EEE', 'studied_credits': '60-65'}</t>
+          <t>{'highest_education': 'A Level or Equivalent', 'code_module': 'GGG', 'SES': 'low'}</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2809,22 +2809,22 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.02203537257175993</v>
+        <v>0.02029573789504204</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>0.2</v>
+        <v>0.1111111111111112</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0004144487821880614</v>
+        <v>0.007742931439977806</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>RULE193</t>
+          <t>RULE188</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>{'SES': 'low', 'code_module': 'FFF', 'gender': 'M'}</t>
+          <t>{'gender': 'M', 'highest_education': 'A Level or Equivalent', 'SES': 'low'}</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2843,22 +2843,22 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.09423021165555233</v>
+        <v>0.1006088721368513</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9908536585365854</v>
+        <v>0.9692737430167597</v>
       </c>
       <c r="G71" t="n">
-        <v>0.5257373794668179</v>
+        <v>0.2192737430167597</v>
       </c>
       <c r="H71" t="n">
-        <v>3.923614963570501e-19</v>
+        <v>1.208278043660971e-07</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>RULE195</t>
+          <t>RULE190</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>{'SES': 'low', 'highest_education': 'HE Qualification', 'code_module': 'FFF'}</t>
+          <t>{'studied_credits': '0-59', 'highest_education': 'A Level or Equivalent', 'SES': 'low'}</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2877,22 +2877,22 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.01710640765439258</v>
+        <v>0.02464482458683677</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9833333333333333</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="H72" t="n">
-        <v>0.00667419891800093</v>
+        <v>2.16736593952243e-05</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>RULE196</t>
+          <t>RULE191</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>{'SES': 'low', 'highest_education': 'Lower Than A Level', 'code_module': 'FFF'}</t>
+          <t>{'studied_credits': '60-65', 'highest_education': 'A Level or Equivalent', 'SES': 'low'}</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2911,22 +2911,22 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.0507393447376051</v>
+        <v>0.1032183241519281</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0.9834254143646409</v>
       </c>
       <c r="G73" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.080986389974397</v>
       </c>
       <c r="H73" t="n">
-        <v>2.222452546700705e-10</v>
+        <v>0.002577856439946076</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>RULE197</t>
+          <t>RULE194</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>{'SES': 'low', 'studied_credits': '60-65', 'code_module': 'FFF'}</t>
+          <t>{'code_module': 'BBB', 'age_band': '0-35', 'highest_education': 'A Level or Equivalent'}</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2945,22 +2945,22 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.06146709191069875</v>
+        <v>0.06378660481298927</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9906542056074766</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>0.4044473090557525</v>
+        <v>0.03448275862068961</v>
       </c>
       <c r="H74" t="n">
-        <v>5.74207393833753e-12</v>
+        <v>0.006581388936075881</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>RULE198</t>
+          <t>RULE195</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>{'SES': 'low', 'studied_credits': 'More than 65', 'code_module': 'FFF'}</t>
+          <t>{'code_module': 'BBB', 'age_band': '0-35', 'highest_education': 'HE Qualification'}</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2979,22 +2979,22 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.0585677007828356</v>
+        <v>0.015656712090461</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9950738916256158</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>0.4534072249589491</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
-        <v>1.424797074394674e-12</v>
+        <v>0.0001832611651737818</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>RULE200</t>
+          <t>RULE201</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>{'SES': 'low', 'code_module': 'GGG', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'gender': 'M', 'code_module': 'EEE', 'age_band': '0-35'}</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3013,22 +3013,22 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.02029573789504204</v>
+        <v>0.04928964917367353</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0.9289617486338798</v>
       </c>
       <c r="G76" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.3456284153005464</v>
       </c>
       <c r="H76" t="n">
-        <v>4.136154420364476e-05</v>
+        <v>0.001961170644759021</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>RULE204</t>
+          <t>RULE202</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>{'SES': 'low', 'gender': 'M', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'code_module': 'EEE', 'age_band': '0-35', 'highest_education': 'A Level or Equivalent'}</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.1008988112496376</v>
+        <v>0.03218324151928095</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9720670391061452</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>0.08570340274250887</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H77" t="n">
-        <v>0.007409202424542655</v>
+        <v>6.691092950966745e-07</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>RULE205</t>
+          <t>RULE204</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>{'SES': 'low', 'highest_education': 'HE Qualification', 'gender': 'M'}</t>
+          <t>{'code_module': 'EEE', 'age_band': '0-35', 'studied_credits': '60-65'}</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3081,22 +3081,22 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.0429109886923746</v>
+        <v>0.03595244998550304</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9932885906040269</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>0.3266219239373602</v>
+        <v>0.2</v>
       </c>
       <c r="H78" t="n">
-        <v>5.66114192380265e-05</v>
+        <v>7.155493279836605e-06</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>RULE206</t>
+          <t>RULE205</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>{'SES': 'low', 'studied_credits': '0-59', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'code_module': 'FFF', 'age_band': '0-35', 'gender': 'F'}</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3115,22 +3115,22 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.0234850681356915</v>
+        <v>0.02870397216584517</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9529411764705882</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>0.3529411764705882</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0008131070606987204</v>
+        <v>0.0005759266605790781</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>RULE208</t>
+          <t>RULE206</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3140,7 +3140,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>{'SES': 'low', 'highest_education': 'HE Qualification', 'studied_credits': '60-65'}</t>
+          <t>{'gender': 'M', 'code_module': 'FFF', 'age_band': '0-35'}</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.04204117135401566</v>
+        <v>0.135401565671209</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>0.25</v>
+        <v>0.1551724137931034</v>
       </c>
       <c r="H80" t="n">
-        <v>1.526001810967034e-07</v>
+        <v>1.708638922411716e-15</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>RULE211</t>
+          <t>RULE209</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>{'age_band': '0-35', 'code_module': 'BBB', 'highest_education': 'HE Qualification'}</t>
+          <t>{'code_module': 'FFF', 'age_band': '0-35', 'highest_education': 'Lower Than A Level'}</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3183,22 +3183,22 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.015656712090461</v>
+        <v>0.0623369092490577</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0001832611651737818</v>
+        <v>1.618740586770858e-12</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>RULE219</t>
+          <t>RULE211</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>{'age_band': '0-35', 'code_module': 'EEE', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'code_module': 'FFF', 'age_band': '0-35', 'studied_credits': 'More than 65'}</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3217,22 +3217,22 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.03218324151928095</v>
+        <v>0.08118295158016817</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.3235294117647058</v>
       </c>
       <c r="H82" t="n">
-        <v>6.786387157743512e-08</v>
+        <v>4.964470611369891e-16</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>RULE221</t>
+          <t>RULE219</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>{'age_band': '0-35', 'code_module': 'EEE', 'studied_credits': '60-65'}</t>
+          <t>{'gender': 'M', 'age_band': '0-35', 'highest_education': 'A Level or Equivalent'}</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3251,22 +3251,22 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.03595244998550304</v>
+        <v>0.1710640765439258</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0.978441127694859</v>
       </c>
       <c r="G83" t="n">
-        <v>0.2</v>
+        <v>0.08013604294909626</v>
       </c>
       <c r="H83" t="n">
-        <v>7.155493279836605e-06</v>
+        <v>0.0008167681750341003</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>RULE223</t>
+          <t>RULE222</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>{'age_band': '0-35', 'code_module': 'FFF', 'gender': 'M'}</t>
+          <t>{'age_band': '0-35', 'highest_education': 'A Level or Equivalent', 'studied_credits': '60-65'}</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3285,16 +3285,16 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.135401565671209</v>
+        <v>0.1617860249347637</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>0.3448275862068966</v>
+        <v>0.01666666666666672</v>
       </c>
       <c r="H84" t="n">
-        <v>1.2850128687575e-26</v>
+        <v>0.002453879501952954</v>
       </c>
     </row>
     <row r="85">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>{'age_band': '0-35', 'highest_education': 'Lower Than A Level', 'code_module': 'FFF'}</t>
+          <t>{'code_module': 'BBB', 'age_band': '35-55', 'gender': 'F'}</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3319,22 +3319,22 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.0623369092490577</v>
+        <v>0.05740794433169034</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="G85" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5068137573004542</v>
       </c>
       <c r="H85" t="n">
-        <v>2.4356608788405e-15</v>
+        <v>5.935285007560105e-11</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>RULE227</t>
+          <t>RULE229</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>{'age_band': '0-35', 'studied_credits': '60-65', 'code_module': 'FFF'}</t>
+          <t>{'code_module': 'BBB', 'age_band': '35-55', 'highest_education': 'Lower Than A Level'}</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3353,22 +3353,22 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.08292258625688606</v>
+        <v>0.02841403305305886</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>0.282051282051282</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H86" t="n">
-        <v>3.359858262660837e-15</v>
+        <v>7.318760073343689e-08</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>RULE228</t>
+          <t>RULE231</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>{'age_band': '0-35', 'studied_credits': 'More than 65', 'code_module': 'FFF'}</t>
+          <t>{'code_module': 'BBB', 'age_band': '35-55', 'studied_credits': 'More than 65'}</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3387,22 +3387,22 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.08118295158016817</v>
+        <v>0.01710640765439258</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0.9672131147540983</v>
       </c>
       <c r="G87" t="n">
-        <v>0.2647058823529411</v>
+        <v>0.7172131147540983</v>
       </c>
       <c r="H87" t="n">
-        <v>2.958275963395636e-14</v>
+        <v>0.0007055201357741436</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>RULE235</t>
+          <t>RULE238</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>{'age_band': '0-35', 'gender': 'M', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'gender': 'M', 'code_module': 'FFF', 'age_band': '35-55'}</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.1736735285590026</v>
+        <v>0.04986952739924616</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9933665008291874</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>0.06116311099867899</v>
+        <v>0.4545454545454546</v>
       </c>
       <c r="H88" t="n">
-        <v>7.097030667916043e-05</v>
+        <v>1.897236431927906e-11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>RULE237</t>
+          <t>RULE239</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>{'age_band': '0-35', 'studied_credits': '60-65', 'gender': 'M'}</t>
+          <t>{'code_module': 'FFF', 'age_band': '35-55', 'highest_education': 'A Level or Equivalent'}</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3455,22 +3455,22 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.1765729196868658</v>
+        <v>0.02203537257175993</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9227272727272727</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2401875901875902</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H89" t="n">
-        <v>3.135583955294651e-07</v>
+        <v>2.482856274556604e-05</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>RULE239</t>
+          <t>RULE241</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>{'age_band': '0-35', 'studied_credits': '60-65', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'code_module': 'FFF', 'age_band': '35-55', 'highest_education': 'Lower Than A Level'}</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3489,22 +3489,22 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.1617860249347637</v>
+        <v>0.02232531168454625</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0.9871794871794872</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01666666666666672</v>
+        <v>0.3205128205128206</v>
       </c>
       <c r="H90" t="n">
-        <v>0.002453879501952954</v>
+        <v>0.0007575325592947466</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>RULE255</t>
+          <t>RULE243</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>{'age_band': '35-55', 'code_module': 'FFF', 'gender': 'M'}</t>
+          <t>{'code_module': 'FFF', 'age_band': '35-55', 'studied_credits': 'More than 65'}</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3523,22 +3523,22 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.04928964917367353</v>
+        <v>0.0234850681356915</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9883720930232558</v>
+        <v>0.9878048780487805</v>
       </c>
       <c r="G91" t="n">
-        <v>0.2610993657505285</v>
+        <v>0.7878048780487805</v>
       </c>
       <c r="H91" t="n">
-        <v>9.549932825222646e-06</v>
+        <v>0.000767663944198292</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>RULE257</t>
+          <t>RULE245</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>{'age_band': '35-55', 'highest_education': 'HE Qualification', 'code_module': 'FFF'}</t>
+          <t>{'highest_education': 'A Level or Equivalent', 'age_band': '35-55', 'code_module': 'GGG'}</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.01652652942881995</v>
+        <v>0.01246738184981154</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
@@ -3566,13 +3566,13 @@
         <v>0.5</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0001230333094348595</v>
+        <v>0.0004784342038291362</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>RULE258</t>
+          <t>RULE247</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3582,7 +3582,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>{'highest_education': 'Lower Than A Level', 'age_band': '35-55', 'code_module': 'FFF'}</t>
+          <t>{'studied_credits': '0-59', 'age_band': '35-55', 'code_module': 'GGG'}</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3591,22 +3591,22 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.02261525079733256</v>
+        <v>0.03247318063206726</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>0.9739130434782609</v>
       </c>
       <c r="G93" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.1405797101449275</v>
       </c>
       <c r="H93" t="n">
-        <v>2.000126412367923e-05</v>
+        <v>0.008093956158985664</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>RULE260</t>
+          <t>RULE248</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>{'studied_credits': 'More than 65', 'age_band': '35-55', 'code_module': 'FFF'}</t>
+          <t>{'age_band': '35-55', 'highest_education': 'A Level or Equivalent', 'gender': 'F'}</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3625,22 +3625,22 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.02377500724847782</v>
+        <v>0.04697013627138301</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4</v>
+        <v>0.2140350877192982</v>
       </c>
       <c r="H94" t="n">
-        <v>5.609539696222559e-06</v>
+        <v>0.007055235169683246</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>RULE262</t>
+          <t>RULE249</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>{'age_band': '35-55', 'code_module': 'GGG', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'age_band': '35-55', 'gender': 'F', 'highest_education': 'Lower Than A Level'}</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.01246738184981154</v>
+        <v>0.04783995360974196</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="G95" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.2430555555555556</v>
       </c>
       <c r="H95" t="n">
-        <v>0.006498263407856731</v>
+        <v>0.0002043777805751868</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>RULE264</t>
+          <t>RULE252</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>{'studied_credits': '0-59', 'age_band': '35-55', 'code_module': 'GGG'}</t>
+          <t>{'gender': 'M', 'age_band': '35-55', 'highest_education': 'A Level or Equivalent'}</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3693,22 +3693,22 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.03247318063206726</v>
+        <v>0.04436068425630618</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9739130434782609</v>
+        <v>0.9329268292682927</v>
       </c>
       <c r="G96" t="n">
-        <v>0.1822463768115943</v>
+        <v>0.4783813747228382</v>
       </c>
       <c r="H96" t="n">
-        <v>0.0016112309496912</v>
+        <v>0.0003788993733802243</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>RULE265</t>
+          <t>RULE254</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3718,7 +3718,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>{'gender': 'F', 'age_band': '35-55', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'gender': 'M', 'age_band': '35-55', 'studied_credits': '60-65'}</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3727,22 +3727,22 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.04841983183531458</v>
+        <v>0.07770368222673239</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9766081871345029</v>
+        <v>0.9273356401384083</v>
       </c>
       <c r="G97" t="n">
-        <v>0.3766081871345029</v>
+        <v>0.3119510247537929</v>
       </c>
       <c r="H97" t="n">
-        <v>1.063902596223978e-06</v>
+        <v>0.001937618796206113</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RULE275</t>
+          <t>RULE255</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>{'studied_credits': 'More than 65', 'age_band': '35-55', 'gender': 'M'}</t>
+          <t>{'gender': 'M', 'age_band': '35-55', 'studied_credits': 'More than 65'}</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3761,22 +3761,22 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.03450275442157147</v>
+        <v>0.03218324151928095</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9834710743801653</v>
+        <v>0.9173553719008265</v>
       </c>
       <c r="G98" t="n">
-        <v>0.4279155188246098</v>
+        <v>0.5840220385674932</v>
       </c>
       <c r="H98" t="n">
-        <v>7.914661812174088e-06</v>
+        <v>0.002379213440542678</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>RULE276</t>
+          <t>RULE256</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3801,16 +3801,16 @@
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="H99" t="n">
-        <v>9.494625445133527e-05</v>
+        <v>0.0003499942411643784</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>RULE279</t>
+          <t>RULE257</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>{'age_band': '35-55', 'highest_education': 'HE Qualification', 'studied_credits': '60-65'}</t>
+          <t>{'age_band': '35-55', 'highest_education': 'A Level or Equivalent', 'studied_credits': '60-65'}</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3829,22 +3829,22 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.03827196288779356</v>
+        <v>0.05363873586546825</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0.9635416666666666</v>
       </c>
       <c r="G100" t="n">
-        <v>0.25</v>
+        <v>0.2635416666666667</v>
       </c>
       <c r="H100" t="n">
-        <v>5.392643690869966e-07</v>
+        <v>0.001603584844026582</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>RULE282</t>
+          <t>RULE264</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>{'studied_credits': 'More than 65', 'age_band': '35-55', 'highest_education': 'Lower Than A Level'}</t>
+          <t>{'code_module': 'BBB', 'highest_education': 'A Level or Equivalent', 'gender': 'F'}</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3863,22 +3863,22 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.01826616410553784</v>
+        <v>0.07973325601623658</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>0.3116883116883117</v>
+        <v>0.06666666666666665</v>
       </c>
       <c r="H101" t="n">
-        <v>0.003550312777098806</v>
+        <v>3.129094270238388e-05</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>RULE285</t>
+          <t>RULE265</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>{'gender': 'F', 'code_module': 'BBB', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'code_module': 'BBB', 'gender': 'F', 'highest_education': 'HE Qualification'}</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.07973325601623658</v>
+        <v>0.02667439837634097</v>
       </c>
       <c r="F102" t="n">
         <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06666666666666665</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="H102" t="n">
-        <v>3.129094270238388e-05</v>
+        <v>4.88527855855886e-06</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>RULE286</t>
+          <t>RULE266</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>{'gender': 'F', 'code_module': 'BBB', 'highest_education': 'HE Qualification'}</t>
+          <t>{'code_module': 'BBB', 'gender': 'F', 'studied_credits': '60-65'}</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3931,22 +3931,22 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.02667439837634097</v>
+        <v>0.1243838793853291</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>0.9907621247113164</v>
       </c>
       <c r="G103" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.05742879137798307</v>
       </c>
       <c r="H103" t="n">
-        <v>4.88527855855886e-06</v>
+        <v>0.003107193785400057</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>RULE289</t>
+          <t>RULE268</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>{'studied_credits': 'More than 65', 'code_module': 'BBB', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'code_module': 'BBB', 'highest_education': 'A Level or Equivalent', 'studied_credits': 'More than 65'}</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3971,16 +3971,16 @@
         <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.2307692307692307</v>
       </c>
       <c r="H104" t="n">
-        <v>0.0002235872731592914</v>
+        <v>1.369444809203265e-05</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>RULE291</t>
+          <t>RULE277</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>{'studied_credits': 'More than 65', 'code_module': 'BBB', 'highest_education': 'HE Qualification'}</t>
+          <t>{'gender': 'M', 'highest_education': 'A Level or Equivalent', 'code_module': 'DDD'}</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3999,22 +3999,22 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.01159756451145259</v>
+        <v>0.04726007538416933</v>
       </c>
       <c r="F105" t="n">
         <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H105" t="n">
-        <v>0.001197787795366946</v>
+        <v>2.053764149406481e-07</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>RULE295</t>
+          <t>RULE279</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>{'studied_credits': 'More than 65', 'gender': 'F', 'code_module': 'CCC'}</t>
+          <t>{'studied_credits': '60-65', 'highest_education': 'A Level or Equivalent', 'code_module': 'DDD'}</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4033,22 +4033,22 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.01014786894752102</v>
+        <v>0.05044940562481879</v>
       </c>
       <c r="F106" t="n">
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="H106" t="n">
-        <v>0.002364150759839216</v>
+        <v>1.029528860687247e-06</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>RULE306</t>
+          <t>RULE281</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>{'code_module': 'EEE', 'gender': 'M', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'gender': 'M', 'code_module': 'EEE', 'highest_education': 'A Level or Equivalent'}</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4073,16 +4073,16 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H107" t="n">
-        <v>2.200627745739835e-08</v>
+        <v>1.691326268865208e-08</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>RULE308</t>
+          <t>RULE283</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>{'code_module': 'EEE', 'studied_credits': '60-65', 'gender': 'M'}</t>
+          <t>{'gender': 'M', 'code_module': 'EEE', 'studied_credits': '60-65'}</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4116,7 +4116,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>RULE309</t>
+          <t>RULE284</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4135,22 +4135,22 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.02232531168454625</v>
+        <v>0.02203537257175993</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>0.987012987012987</v>
       </c>
       <c r="G109" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.3203463203463204</v>
       </c>
       <c r="H109" t="n">
-        <v>2.802859516153001e-05</v>
+        <v>0.004179022454320819</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>RULE317</t>
+          <t>RULE285</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>{'highest_education': 'HE Qualification', 'code_module': 'FFF', 'gender': 'M'}</t>
+          <t>{'code_module': 'EEE', 'highest_education': 'A Level or Equivalent', 'studied_credits': 'More than 65'}</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4169,22 +4169,22 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.02899391127863149</v>
+        <v>0.009857929834734706</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9803921568627451</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>0.4803921568627451</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0.004291125028946769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>RULE318</t>
+          <t>RULE288</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>{'highest_education': 'Lower Than A Level', 'code_module': 'FFF', 'gender': 'M'}</t>
+          <t>{'code_module': 'FFF', 'gender': 'F', 'highest_education': 'Lower Than A Level'}</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4203,22 +4203,22 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.07045520440707452</v>
+        <v>0.01420701652652943</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G111" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.3133333333333334</v>
       </c>
       <c r="H111" t="n">
-        <v>1.58567701704336e-16</v>
+        <v>0.007450656909592505</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>RULE319</t>
+          <t>RULE290</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>{'studied_credits': '60-65', 'code_module': 'FFF', 'gender': 'M'}</t>
+          <t>{'code_module': 'FFF', 'gender': 'F', 'studied_credits': 'More than 65'}</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4237,22 +4237,22 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.1003189330240649</v>
+        <v>0.02000579878225573</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9942528735632183</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G112" t="n">
-        <v>0.3100423472474289</v>
+        <v>0.2357142857142858</v>
       </c>
       <c r="H112" t="n">
-        <v>3.490648217963786e-16</v>
+        <v>0.003979571447021726</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>RULE320</t>
+          <t>RULE291</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>{'studied_credits': 'More than 65', 'code_module': 'FFF', 'gender': 'M'}</t>
+          <t>{'gender': 'M', 'code_module': 'FFF', 'highest_education': 'A Level or Equivalent'}</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4271,22 +4271,22 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.08466222093360394</v>
+        <v>0.08408234270803132</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9931972789115646</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>0.348035988588984</v>
+        <v>0.06451612903225812</v>
       </c>
       <c r="H113" t="n">
-        <v>1.541900043990659e-14</v>
+        <v>2.555509315336443e-05</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>RULE323</t>
+          <t>RULE292</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>{'studied_credits': '60-65', 'highest_education': 'HE Qualification', 'code_module': 'FFF'}</t>
+          <t>{'gender': 'M', 'code_module': 'FFF', 'highest_education': 'HE Qualification'}</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4305,22 +4305,22 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.01884604233111047</v>
+        <v>0.0292838503914178</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>0.9901960784313726</v>
       </c>
       <c r="G114" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.4901960784313726</v>
       </c>
       <c r="H114" t="n">
-        <v>0.000114641778416961</v>
+        <v>0.0003826033433329041</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>RULE325</t>
+          <t>RULE293</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>{'highest_education': 'Lower Than A Level', 'studied_credits': '60-65', 'code_module': 'FFF'}</t>
+          <t>{'gender': 'M', 'code_module': 'FFF', 'highest_education': 'Lower Than A Level'}</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4339,22 +4339,22 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.04755001449695564</v>
+        <v>0.07045520440707452</v>
       </c>
       <c r="F115" t="n">
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="H115" t="n">
-        <v>1.069045468004473e-11</v>
+        <v>7.694966574833588e-14</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>RULE326</t>
+          <t>RULE294</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>{'studied_credits': 'More than 65', 'highest_education': 'Lower Than A Level', 'code_module': 'FFF'}</t>
+          <t>{'gender': 'M', 'code_module': 'FFF', 'studied_credits': '60-65'}</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4373,22 +4373,22 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.03740214554943462</v>
+        <v>0.1008988112496376</v>
       </c>
       <c r="F116" t="n">
         <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.02631578947368418</v>
       </c>
       <c r="H116" t="n">
-        <v>1.378904933380875e-09</v>
+        <v>0.002754600244266114</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>RULE327</t>
+          <t>RULE295</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>{'gender': 'F', 'code_module': 'GGG', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'gender': 'M', 'code_module': 'FFF', 'studied_credits': 'More than 65'}</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4407,22 +4407,22 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.03044360684256306</v>
+        <v>0.08495216004639025</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>0.9965986394557823</v>
       </c>
       <c r="G117" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.4159534781654597</v>
       </c>
       <c r="H117" t="n">
-        <v>9.815366973812106e-07</v>
+        <v>3.263594050652014e-17</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>RULE330</t>
+          <t>RULE297</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>{'studied_credits': '0-59', 'code_module': 'GGG', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'code_module': 'FFF', 'highest_education': 'A Level or Equivalent', 'studied_credits': 'More than 65'}</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4441,22 +4441,22 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.03450275442157147</v>
+        <v>0.05044940562481879</v>
       </c>
       <c r="F118" t="n">
         <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>0.3571428571428571</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H118" t="n">
-        <v>5.598586081092337e-08</v>
+        <v>6.374696674346796e-05</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>RULE332</t>
+          <t>RULE301</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>{'studied_credits': '0-59', 'gender': 'F', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'code_module': 'FFF', 'studied_credits': 'More than 65', 'highest_education': 'Lower Than A Level'}</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4475,22 +4475,22 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.03160336329370832</v>
+        <v>0.0371122064366483</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>0.9922480620155039</v>
       </c>
       <c r="G119" t="n">
-        <v>0.25</v>
+        <v>0.6764585883312934</v>
       </c>
       <c r="H119" t="n">
-        <v>3.008586170521775e-06</v>
+        <v>3.135652905764425e-08</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>RULE337</t>
+          <t>RULE302</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>{'studied_credits': '0-59', 'gender': 'M', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'highest_education': 'A Level or Equivalent', 'code_module': 'GGG', 'gender': 'F'}</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4509,22 +4509,22 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.01826616410553784</v>
+        <v>0.03044360684256306</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9402985074626866</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>0.4402985074626866</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="H120" t="n">
-        <v>0.005670778750681337</v>
+        <v>0.00016933318318101</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>RULE340</t>
+          <t>RULE305</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>{'highest_education': 'HE Qualification', 'studied_credits': '60-65', 'gender': 'M'}</t>
+          <t>{'highest_education': 'A Level or Equivalent', 'studied_credits': '0-59', 'code_module': 'GGG'}</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4543,158 +4543,158 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.05131922296317773</v>
+        <v>0.03450275442157147</v>
       </c>
       <c r="F121" t="n">
         <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="H121" t="n">
-        <v>2.24028488351443e-11</v>
+        <v>4.662617451125985e-06</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>RULE500</t>
+          <t>RULE307</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>{'disability': 'Y'}</t>
+          <t>{'disability': 'N'}</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>{'SES': 'low', 'highest_education': 'Lower Than A Level', 'code_module': 'FFF'}</t>
+          <t>{'studied_credits': '0-59', 'highest_education': 'A Level or Equivalent', 'gender': 'F'}</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{'final_result': 'Fail'}</t>
+          <t>{'final_result': 'Pass'}</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.006378660481298927</v>
+        <v>0.03160336329370832</v>
       </c>
       <c r="F122" t="n">
-        <v>0.7586206896551724</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.125</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>0.0004498794206934668</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>RULE506</t>
+          <t>RULE312</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>{'disability': 'Y'}</t>
+          <t>{'disability': 'N'}</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>{'SES': 'low', 'highest_education': 'Lower Than A Level', 'gender': 'M'}</t>
+          <t>{'gender': 'M', 'studied_credits': '60-65', 'highest_education': 'A Level or Equivalent'}</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{'final_result': 'Fail'}</t>
+          <t>{'final_result': 'Pass'}</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.00956799072194839</v>
+        <v>0.1240939402725428</v>
       </c>
       <c r="F123" t="n">
-        <v>0.825</v>
+        <v>0.9861751152073732</v>
       </c>
       <c r="G123" t="n">
-        <v>0.4773076923076923</v>
+        <v>0.1073872364194944</v>
       </c>
       <c r="H123" t="n">
-        <v>8.481971710180577e-07</v>
+        <v>0.000110584981056469</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>RULE532</t>
+          <t>RULE313</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>{'disability': 'Y'}</t>
+          <t>{'disability': 'N'}</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>{'age_band': '0-35', 'studied_credits': 'More than 65', 'highest_education': 'Lower Than A Level'}</t>
+          <t>{'gender': 'M', 'highest_education': 'A Level or Equivalent', 'studied_credits': 'More than 65'}</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{'final_result': 'Fail'}</t>
+          <t>{'final_result': 'Pass'}</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.006378660481298927</v>
+        <v>0.07683386488837345</v>
       </c>
       <c r="F124" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.9814814814814815</v>
       </c>
       <c r="G124" t="n">
-        <v>0.4052070350366985</v>
+        <v>0.1194125159642402</v>
       </c>
       <c r="H124" t="n">
-        <v>0.0005082334255919594</v>
+        <v>0.000836664904671237</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>RULE550</t>
+          <t>RULE314</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>{'disability': 'Y'}</t>
+          <t>{'disability': 'N'}</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>{'age_band': '35-55', 'code_module': 'GGG', 'highest_education': 'A Level or Equivalent'}</t>
+          <t>{'gender': 'M', 'studied_credits': '60-65', 'highest_education': 'HE Qualification'}</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{'final_result': 'Fail'}</t>
+          <t>{'final_result': 'Pass'}</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.001449695563931574</v>
+        <v>0.05044940562481879</v>
       </c>
       <c r="F125" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9830508474576272</v>
       </c>
       <c r="G125" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.4830508474576272</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>0.001119000444012038</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>RULE579</t>
+          <t>RULE357</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>{'studied_credits': 'More than 65', 'highest_education': 'Lower Than A Level', 'code_module': 'DDD'}</t>
+          <t>{'age_band': '35-55', 'code_module': 'DDD'}</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4713,22 +4713,22 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.002899391127863149</v>
+        <v>0.002029573789504204</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G126" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.557919621749409</v>
       </c>
       <c r="H126" t="n">
-        <v>0.003098106343233974</v>
+        <v>0.002173123627268623</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>RULE599</t>
+          <t>RULE360</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>{'studied_credits': 'More than 65', 'highest_education': 'Lower Than A Level', 'gender': 'M'}</t>
+          <t>{'age_band': '35-55', 'studied_credits': 'More than 65'}</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4747,16 +4747,526 @@
         </is>
       </c>
       <c r="E127" t="n">
+        <v>0.004639025804581038</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.6478696741854636</v>
+      </c>
+      <c r="H127" t="n">
+        <v>5.180058042356583e-08</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>RULE389</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>{'disability': 'Y'}</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>{'studied_credits': 'More than 65', 'highest_education': 'Lower Than A Level'}</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>{'final_result': 'Fail'}</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>0.01043780806030734</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.8372093023255814</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.5334118339711511</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1.509061384852692e-08</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>RULE459</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>{'disability': 'Y'}</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>{'code_module': 'DDD', 'age_band': '35-55', 'SES': 'low'}</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>{'final_result': 'Fail'}</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0.001159756451145259</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.7121212121212122</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.005850984072892858</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>RULE462</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>{'disability': 'Y'}</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>{'age_band': '35-55', 'SES': 'low', 'studied_credits': 'More than 65'}</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>{'final_result': 'Fail'}</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0.004059147579008408</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.7547619047619047</v>
+      </c>
+      <c r="H130" t="n">
+        <v>9.98972220865539e-07</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>RULE464</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>{'disability': 'Y'}</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>{'code_module': 'BBB', 'SES': 'low', 'studied_credits': 'More than 65'}</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>{'final_result': 'Fail'}</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>0.004349086691794723</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.488660676080445</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.0009205907732812262</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>RULE483</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>{'disability': 'Y'}</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>{'studied_credits': 'More than 65', 'SES': 'low', 'highest_education': 'Lower Than A Level'}</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>{'final_result': 'Fail'}</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>0.008698173383589447</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.5879120879120879</v>
+      </c>
+      <c r="H132" t="n">
+        <v>5.231699108550648e-08</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>RULE503</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>{'disability': 'Y'}</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>{'code_module': 'EEE', 'age_band': '0-35', 'highest_education': 'A Level or Equivalent'}</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>{'final_result': 'Fail'}</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>0.001449695563931574</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>RULE513</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>{'disability': 'Y'}</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>{'studied_credits': 'More than 65', 'age_band': '0-35', 'highest_education': 'Lower Than A Level'}</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>{'final_result': 'Fail'}</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0.006958538706871557</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.4661404237640216</v>
+      </c>
+      <c r="H134" t="n">
+        <v>3.701582068702216e-05</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>RULE526</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>{'disability': 'Y'}</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>{'gender': 'M', 'age_band': '35-55', 'code_module': 'DDD'}</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>{'final_result': 'Fail'}</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>0.001739634676717889</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.8271604938271605</v>
+      </c>
+      <c r="H135" t="n">
+        <v>5.604995853019282e-05</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>RULE530</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>{'disability': 'Y'}</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>{'code_module': 'FFF', 'age_band': '35-55', 'studied_credits': 'More than 65'}</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>{'final_result': 'Fail'}</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>0.001159756451145259</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.7878048780487805</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.002465468621621803</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>RULE535</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>{'disability': 'Y'}</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>{'age_band': '35-55', 'gender': 'F', 'studied_credits': 'More than 65'}</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>{'final_result': 'Fail'}</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0.002899391127863149</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.6838006230529595</v>
+      </c>
+      <c r="H137" t="n">
+        <v>4.0417502478295e-05</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>RULE536</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>{'disability': 'Y'}</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>{'studied_credits': 'More than 65', 'age_band': '35-55', 'highest_education': 'Lower Than A Level'}</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>{'final_result': 'Fail'}</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>0.003479269353435779</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.7662337662337662</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.0002426859515427925</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>RULE541</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>{'disability': 'Y'}</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>{'studied_credits': 'More than 65', 'code_module': 'BBB', 'highest_education': 'Lower Than A Level'}</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>{'final_result': 'Fail'}</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0.003189330240649464</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.4824561403508771</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.005579875415679284</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>RULE559</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>{'disability': 'Y'}</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>{'studied_credits': 'More than 65', 'code_module': 'DDD', 'highest_education': 'Lower Than A Level'}</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>{'final_result': 'Fail'}</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>0.002899391127863149</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.006239110900937766</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>RULE583</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>{'disability': 'Y'}</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>{'studied_credits': 'More than 65', 'gender': 'F', 'highest_education': 'Lower Than A Level'}</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>{'final_result': 'Fail'}</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>0.004928964917367353</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.5673952641165756</v>
+      </c>
+      <c r="H141" t="n">
+        <v>5.864520078400828e-05</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>RULE584</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>{'disability': 'Y'}</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>{'gender': 'M', 'studied_credits': 'More than 65', 'highest_education': 'Lower Than A Level'}</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>{'final_result': 'Fail'}</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
         <v>0.005508843142939983</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F142" t="n">
         <v>0.76</v>
       </c>
-      <c r="G127" t="n">
-        <v>0.5228865979381443</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2.705355985128923e-05</v>
+      <c r="G142" t="n">
+        <v>0.5022680412371134</v>
+      </c>
+      <c r="H142" t="n">
+        <v>6.023992890976699e-05</v>
       </c>
     </row>
   </sheetData>
